--- a/sequences.xlsx
+++ b/sequences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_code\scanning_mutagenisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E14490-DA65-4AB4-9624-30600B3DB4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98456312-10D9-4AC7-8CE1-FF9CB56DAEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="2130" windowWidth="19200" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Protein</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,28 @@
   </si>
   <si>
     <t>atggcacgcattattgttgttacttcgggcaaagggggtgttggtaagacaacctccagcgcggccatcgccactggtttggcccagaagggaaagaaaactgtcgtgatagattttgatatcggcctgcgtaatctcgacctgattatgggttgtgaacgccgggtcgtttacgatttcgtcaacgtcattcagggcgatgcaacgctaaatcaggcgttaattaaagataagcgtactgaaaatctctatattctgccggcatcgcaaacacgcgataaagatgccctcacccgtgaaggggtcgccaaagttcttgatgatctgaaagcgatggattttgaatttatcgtttgtgactccccggcagggattgaaaccggtgcgttaatggcactctattttgcagacgaagccattattaccaccaacccggaagtctcctcagtacgcgactctgaccgtattttaggcattctggcgtcgaaatcacgccgcgcagaaaatggcgaagagcctattaaagagcacctgctgttaacgcgctataacccaggccgcgtaagcagaggtgacatgctgagcatggaagatgtgctggagatcctgcgcatcaaactcgtcggcgtgatcccagaggatcaatcagtattgcgcgcctctaaccagggtgaaccggtcattctcgacattaacgccgatgcgggtaaagcctacgcagataccgtagaacgtctgttgggagaagaacgtcctttccgcttcattgaagaagagaagaaaggcttcctcaaacgcttgttcggaggataa</t>
+  </si>
+  <si>
+    <t>upstream adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downstream adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caaacgcttgttcggaggataagtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcccgctgtaaaagcgca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgatccctttttaacaaggaatttct</t>
+  </si>
+  <si>
+    <t>gttatggcattactcgatttctttc</t>
   </si>
 </sst>
 </file>
@@ -372,36 +394,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.58203125" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
